--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/GLab Dropbox/Anderson Brito/projects/github_glab/training/nextstrain_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3130699C-D6C6-5048-8A8A-311FBB9824BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F53D5-F493-BE45-8F68-E2D66F5F686A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17260" yWindow="460" windowWidth="25920" windowHeight="27580" xr2:uid="{974E2B66-373E-014B-AA82-71A6B75DC07F}"/>
   </bookViews>
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4843,7 +4843,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/GLab Dropbox/Anderson Brito/projects/github_glab/training/nextstrain_course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anderson/GLab Dropbox/anderson brito/projects/github_glab/training/nextstrain_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1F53D5-F493-BE45-8F68-E2D66F5F686A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E729C10A-119B-1846-97F3-AB2613BBC845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17260" yWindow="460" windowWidth="25920" windowHeight="27580" xr2:uid="{974E2B66-373E-014B-AA82-71A6B75DC07F}"/>
+    <workbookView xWindow="2160" yWindow="-21140" windowWidth="27520" windowHeight="21140" xr2:uid="{974E2B66-373E-014B-AA82-71A6B75DC07F}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metadata!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">metadata!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="267">
   <si>
     <t>strain</t>
   </si>
@@ -682,9 +682,6 @@
     <t>COL</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>#E7B98A</t>
   </si>
   <si>
@@ -823,33 +820,6 @@
     <t>ECU/Machala</t>
   </si>
   <si>
-    <t>Brazil-Northeast</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Southern-South-America</t>
-  </si>
-  <si>
-    <t>Brazil-North</t>
-  </si>
-  <si>
-    <t>Brazil-Southeast</t>
-  </si>
-  <si>
-    <t>Western-South-America</t>
-  </si>
-  <si>
-    <t>Central-America</t>
-  </si>
-  <si>
-    <t>Northern-South-America</t>
-  </si>
-  <si>
-    <t>Brazil-CenterWest</t>
-  </si>
-  <si>
     <t>#924740</t>
   </si>
   <si>
@@ -866,9 +836,6 @@
   </si>
   <si>
     <t>#E7AD00</t>
-  </si>
-  <si>
-    <t>Caribbean</t>
   </si>
 </sst>
 </file>
@@ -927,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -935,9 +902,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -947,14 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1274,22 +1230,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C77129-79FB-734A-95E9-406363CA080C}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,14 +1257,11 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -1323,13 +1275,10 @@
         <v>203</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1343,13 +1292,10 @@
         <v>203</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
@@ -1363,13 +1309,10 @@
         <v>203</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1382,14 +1325,11 @@
       <c r="D5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1402,14 +1342,11 @@
       <c r="D6" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1422,14 +1359,11 @@
       <c r="D7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -1442,14 +1376,11 @@
       <c r="D8" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1462,14 +1393,11 @@
       <c r="D9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -1482,14 +1410,11 @@
       <c r="D10" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -1502,14 +1427,11 @@
       <c r="D11" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1522,14 +1444,11 @@
       <c r="D12" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -1542,14 +1461,11 @@
       <c r="D13" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -1562,14 +1478,11 @@
       <c r="D14" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1582,14 +1495,11 @@
       <c r="D15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1602,14 +1512,11 @@
       <c r="D16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1622,14 +1529,11 @@
       <c r="D17" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -1643,13 +1547,10 @@
         <v>203</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1663,13 +1564,10 @@
         <v>203</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1683,13 +1581,10 @@
         <v>203</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>77</v>
       </c>
@@ -1703,13 +1598,10 @@
         <v>203</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -1723,13 +1615,10 @@
         <v>203</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>74</v>
       </c>
@@ -1743,13 +1632,10 @@
         <v>203</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
@@ -1763,13 +1649,10 @@
         <v>203</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1783,13 +1666,10 @@
         <v>203</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1803,13 +1683,10 @@
         <v>203</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1823,13 +1700,10 @@
         <v>203</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1843,13 +1717,10 @@
         <v>203</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1863,13 +1734,10 @@
         <v>203</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -1883,13 +1751,10 @@
         <v>203</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -1903,13 +1768,10 @@
         <v>203</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -1923,13 +1785,10 @@
         <v>203</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1943,13 +1802,10 @@
         <v>203</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>14</v>
       </c>
@@ -1963,13 +1819,10 @@
         <v>203</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>15</v>
       </c>
@@ -1983,13 +1836,10 @@
         <v>203</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2003,13 +1853,10 @@
         <v>203</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>17</v>
       </c>
@@ -2023,13 +1870,10 @@
         <v>203</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -2043,13 +1887,10 @@
         <v>203</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,13 +1904,10 @@
         <v>203</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2083,13 +1921,10 @@
         <v>203</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2103,13 +1938,10 @@
         <v>203</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -2123,13 +1955,10 @@
         <v>203</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>23</v>
       </c>
@@ -2143,13 +1972,10 @@
         <v>203</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>24</v>
       </c>
@@ -2163,13 +1989,10 @@
         <v>203</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
@@ -2183,13 +2006,10 @@
         <v>203</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -2203,13 +2023,10 @@
         <v>203</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
@@ -2223,13 +2040,10 @@
         <v>203</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>28</v>
       </c>
@@ -2243,13 +2057,10 @@
         <v>203</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>29</v>
       </c>
@@ -2263,13 +2074,10 @@
         <v>203</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
@@ -2283,13 +2091,10 @@
         <v>203</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>31</v>
       </c>
@@ -2303,13 +2108,10 @@
         <v>203</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2323,13 +2125,10 @@
         <v>203</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
@@ -2343,13 +2142,10 @@
         <v>203</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>35</v>
       </c>
@@ -2363,13 +2159,10 @@
         <v>203</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>36</v>
       </c>
@@ -2383,13 +2176,10 @@
         <v>203</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>37</v>
       </c>
@@ -2403,13 +2193,10 @@
         <v>203</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -2423,13 +2210,10 @@
         <v>203</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>39</v>
       </c>
@@ -2443,13 +2227,10 @@
         <v>203</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -2463,13 +2244,10 @@
         <v>203</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -2483,13 +2261,10 @@
         <v>203</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>42</v>
       </c>
@@ -2503,13 +2278,10 @@
         <v>203</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>45</v>
       </c>
@@ -2523,13 +2295,10 @@
         <v>203</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
@@ -2543,13 +2312,10 @@
         <v>203</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2563,13 +2329,10 @@
         <v>203</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2583,13 +2346,10 @@
         <v>203</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2603,13 +2363,10 @@
         <v>203</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -2623,13 +2380,10 @@
         <v>203</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2643,13 +2397,10 @@
         <v>203</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -2663,13 +2414,10 @@
         <v>203</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -2683,13 +2431,10 @@
         <v>203</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -2703,13 +2448,10 @@
         <v>203</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -2723,13 +2465,10 @@
         <v>203</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -2743,13 +2482,10 @@
         <v>203</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,13 +2499,10 @@
         <v>203</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -2783,13 +2516,10 @@
         <v>203</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -2803,13 +2533,10 @@
         <v>203</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -2823,13 +2550,10 @@
         <v>203</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -2843,13 +2567,10 @@
         <v>203</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -2863,13 +2584,10 @@
         <v>203</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -2883,13 +2601,10 @@
         <v>203</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
@@ -2903,13 +2618,10 @@
         <v>203</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>96</v>
       </c>
@@ -2923,13 +2635,10 @@
         <v>203</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
@@ -2943,13 +2652,10 @@
         <v>203</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -2963,13 +2669,10 @@
         <v>203</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -2983,13 +2686,10 @@
         <v>203</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>83</v>
       </c>
@@ -3003,13 +2703,10 @@
         <v>203</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>84</v>
       </c>
@@ -3023,13 +2720,10 @@
         <v>203</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>85</v>
       </c>
@@ -3043,13 +2737,10 @@
         <v>203</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>86</v>
       </c>
@@ -3063,13 +2754,10 @@
         <v>203</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -3083,13 +2771,10 @@
         <v>203</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>88</v>
       </c>
@@ -3103,13 +2788,10 @@
         <v>203</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>89</v>
       </c>
@@ -3123,13 +2805,10 @@
         <v>203</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -3143,13 +2822,10 @@
         <v>203</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -3163,13 +2839,10 @@
         <v>204</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>99</v>
       </c>
@@ -3183,13 +2856,10 @@
         <v>209</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F95" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>100</v>
       </c>
@@ -3203,13 +2873,10 @@
         <v>210</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -3223,13 +2890,10 @@
         <v>210</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>102</v>
       </c>
@@ -3243,13 +2907,10 @@
         <v>210</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -3263,13 +2924,10 @@
         <v>208</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F99" s="11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>104</v>
       </c>
@@ -3283,13 +2941,10 @@
         <v>212</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -3303,13 +2958,10 @@
         <v>211</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
@@ -3323,13 +2975,10 @@
         <v>213</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
@@ -3343,13 +2992,10 @@
         <v>213</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
@@ -3363,13 +3009,10 @@
         <v>205</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -3383,13 +3026,10 @@
         <v>205</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
@@ -3403,13 +3043,10 @@
         <v>205</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>115</v>
       </c>
@@ -3423,13 +3060,10 @@
         <v>205</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -3443,13 +3077,10 @@
         <v>205</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
@@ -3463,13 +3094,10 @@
         <v>205</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
@@ -3483,13 +3111,10 @@
         <v>205</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
@@ -3503,13 +3128,10 @@
         <v>205</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -3523,13 +3145,10 @@
         <v>205</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F112" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
@@ -3543,13 +3162,10 @@
         <v>205</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -3563,13 +3179,10 @@
         <v>206</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
@@ -3583,13 +3196,10 @@
         <v>206</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -3603,13 +3213,10 @@
         <v>206</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -3623,13 +3230,10 @@
         <v>206</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
@@ -3643,13 +3247,10 @@
         <v>206</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
@@ -3663,13 +3264,10 @@
         <v>206</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>124</v>
       </c>
@@ -3682,14 +3280,11 @@
       <c r="D120" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E120" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E120" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -3702,14 +3297,11 @@
       <c r="D121" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E121" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
@@ -3722,14 +3314,11 @@
       <c r="D122" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F122" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E122" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
@@ -3742,14 +3331,11 @@
       <c r="D123" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E123" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -3762,14 +3348,11 @@
       <c r="D124" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E124" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
@@ -3782,14 +3365,11 @@
       <c r="D125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E125" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E125" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
@@ -3802,11 +3382,8 @@
       <c r="D126" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E126" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>261</v>
+      <c r="E126" s="8" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3826,665 +3403,665 @@
   <cols>
     <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.83203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="13.83203125" style="4" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="4">
         <v>19.483944600000001</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="4">
         <v>-99.689971600000007</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>19.217081199999999</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>-71.923157200000006</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>18.421056849999999</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>-64.638832510235005</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>17.975214950000002</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>-76.8175727910278</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>18.220666999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>-66.589805999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>13.794015999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>-88.897046000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>12.901172000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>-85.039467000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>-12.861014000000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>-50.511144999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>7.0824530000000001</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>-66.139950999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3.5055510000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>-73.095502999999994</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>-1.4956119999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>-78.429985000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>-35.234135999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>-65.064223999999996</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C13" s="5">
-        <v>20.5</v>
-      </c>
-      <c r="D13" s="5">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="4">
+        <v>20.684595699999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-88.875566899999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="4">
+        <v>19.217081199999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-71.923157200000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="4">
+        <v>18.421056849999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-64.638832510235005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="4">
+        <v>18.115295799999998</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-77.159845461016801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="4">
+        <v>18.221417150000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-66.4132818505648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="4">
+        <v>13.800038199999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-88.914068299999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="4">
+        <v>12.1461244</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-86.273717000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="4">
+        <v>-4.7493933000000004</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-52.897300600000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.3545442000000001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-51.916197699999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="4">
+        <v>-10.8855129</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-48.371691200000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2.135138</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-61.3631922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="4">
+        <v>-9.0478679</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-70.526497599999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="4">
+        <v>-4.2112672</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-58.650716825446203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-7.1219365999999997</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-36.724684500000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="4">
+        <v>-9.6611661000000009</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-36.650242599999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="4">
+        <v>-8.4116315999999998</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-37.591969900000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="4">
+        <v>-5.2085502999999997</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-45.393026200000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="4">
+        <v>-7.6992782000000002</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-42.504378699999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="4">
+        <v>-5.3264703000000004</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-39.715607300000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-9.5716643500000007</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-40.961051765435599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="4">
+        <v>-15.775446199999999</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-47.797089100000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="4">
+        <v>-12.899044</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-55.730972999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="4">
+        <v>-23.028015150000002</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-45.556520805503197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="4">
+        <v>-22.911013700000002</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-43.209372700000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" s="4">
+        <v>-19.568768200000001</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-40.1721991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10.166667</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-68.083332999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="5">
-        <v>20.684595699999999</v>
-      </c>
-      <c r="D14" s="5">
-        <v>-88.875566899999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="5">
-        <v>19.217081199999999</v>
-      </c>
-      <c r="D15" s="5">
-        <v>-71.923157200000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="5">
-        <v>18.421056849999999</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-64.638832510235005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="5">
-        <v>18.115295799999998</v>
-      </c>
-      <c r="D17" s="5">
-        <v>-77.159845461016801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="5">
-        <v>18.221417150000001</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-66.4132818505648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="5">
-        <v>13.800038199999999</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-88.914068299999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="5">
-        <v>12.1461244</v>
-      </c>
-      <c r="D20" s="5">
-        <v>-86.273717000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="5">
-        <v>-4.7493933000000004</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-52.897300600000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.3545442000000001</v>
-      </c>
-      <c r="D22" s="5">
-        <v>-51.916197699999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="5">
-        <v>-10.8855129</v>
-      </c>
-      <c r="D23" s="5">
-        <v>-48.371691200000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="5">
-        <v>2.135138</v>
-      </c>
-      <c r="D24" s="5">
-        <v>-61.3631922</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="5">
-        <v>-9.0478679</v>
-      </c>
-      <c r="D25" s="5">
-        <v>-70.526497599999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C26" s="5">
-        <v>-4.2112672</v>
-      </c>
-      <c r="D26" s="5">
-        <v>-58.650716825446203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" s="5">
-        <v>-7.1219365999999997</v>
-      </c>
-      <c r="D27" s="5">
-        <v>-36.724684500000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C28" s="5">
-        <v>-9.6611661000000009</v>
-      </c>
-      <c r="D28" s="5">
-        <v>-36.650242599999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="5">
-        <v>-8.4116315999999998</v>
-      </c>
-      <c r="D29" s="5">
-        <v>-37.591969900000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="5">
-        <v>-5.2085502999999997</v>
-      </c>
-      <c r="D30" s="5">
-        <v>-45.393026200000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="5">
-        <v>-7.6992782000000002</v>
-      </c>
-      <c r="D31" s="5">
-        <v>-42.504378699999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="5">
-        <v>-5.3264703000000004</v>
-      </c>
-      <c r="D32" s="5">
-        <v>-39.715607300000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="5">
-        <v>-9.5716643500000007</v>
-      </c>
-      <c r="D33" s="5">
-        <v>-40.961051765435599</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C34" s="5">
-        <v>-15.775446199999999</v>
-      </c>
-      <c r="D34" s="5">
-        <v>-47.797089100000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" s="5">
-        <v>-12.899044</v>
-      </c>
-      <c r="D35" s="5">
-        <v>-55.730972999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="5">
-        <v>-23.028015150000002</v>
-      </c>
-      <c r="D36" s="5">
-        <v>-45.556520805503197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="5">
-        <v>-22.911013700000002</v>
-      </c>
-      <c r="D37" s="5">
-        <v>-43.209372700000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="5">
-        <v>-19.568768200000001</v>
-      </c>
-      <c r="D38" s="5">
-        <v>-40.1721991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="C40" s="4">
+        <v>11.020596250000001</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-63.907342900219902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-67.166667000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="4">
+        <v>8.5875787999999993</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-71.157235200000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="4">
+        <v>8.4417924000000006</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-73.049250499999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="4">
+        <v>7.0000084999999999</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-73.250008600000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.73436190000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-79.3858867</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="4">
+        <v>-3.2587494000000001</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-79.959513299999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C39" s="5">
-        <v>10.166667</v>
-      </c>
-      <c r="D39" s="5">
-        <v>-68.083332999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="5">
-        <v>11.020596250000001</v>
-      </c>
-      <c r="D40" s="5">
-        <v>-63.907342900219902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C41" s="5">
-        <v>10</v>
-      </c>
-      <c r="D41" s="5">
-        <v>-67.166667000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" s="5">
-        <v>8.5875787999999993</v>
-      </c>
-      <c r="D42" s="5">
-        <v>-71.157235200000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="5">
-        <v>8.4417924000000006</v>
-      </c>
-      <c r="D43" s="5">
-        <v>-73.049250499999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="5">
-        <v>7.0000084999999999</v>
-      </c>
-      <c r="D44" s="5">
-        <v>-73.250008600000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0.73436190000000001</v>
-      </c>
-      <c r="D45" s="5">
-        <v>-79.3858867</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="5">
-        <v>-3.2587494000000001</v>
-      </c>
-      <c r="D46" s="5">
-        <v>-79.959513299999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>-34.603672000000003</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>-58.381574000000001</v>
       </c>
     </row>
@@ -4854,520 +4431,520 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>208</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>212</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
